--- a/Feature-Analysis/Resize Feature/s_19_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_19_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.61175925925</v>
+        <v>738157.61175925925</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.61215277773</v>
+        <v>738157.61215277773</v>
       </c>
       <c r="C3" s="0">
         <v>33.99999663233757</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.6127662037</v>
+        <v>738157.6127662037</v>
       </c>
       <c r="C4" s="0">
         <v>87.000000849366188</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.61312500003</v>
+        <v>738157.61312500003</v>
       </c>
       <c r="C5" s="0">
         <v>118.00000369548798</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.61349537037</v>
+        <v>738157.61349537037</v>
       </c>
       <c r="C6" s="0">
         <v>150.00000111758709</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.6138541667</v>
+        <v>738157.6138541667</v>
       </c>
       <c r="C7" s="0">
         <v>181.00000396370888</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.61415509263</v>
+        <v>738157.61415509263</v>
       </c>
       <c r="C8" s="0">
         <v>207.00000375509262</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.61456018523</v>
+        <v>738157.61456018523</v>
       </c>
       <c r="C9" s="0">
         <v>242.00000502169132</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.61486111116</v>
+        <v>738157.61486111116</v>
       </c>
       <c r="C10" s="0">
         <v>268.00000481307507</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.61521990737</v>
+        <v>738157.61521990737</v>
       </c>
       <c r="C11" s="0">
         <v>298.99999760091305</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.6155787037</v>
+        <v>738157.6155787037</v>
       </c>
       <c r="C12" s="0">
         <v>330.00000044703484</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.61598379631</v>
+        <v>738157.61598379631</v>
       </c>
       <c r="C13" s="0">
         <v>365.00000171363354</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.6162731481</v>
+        <v>738157.6162731481</v>
       </c>
       <c r="C14" s="0">
         <v>389.99999687075615</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.61694444448</v>
+        <v>738157.61694444448</v>
       </c>
       <c r="C15" s="0">
         <v>448.00000414252281</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.6173032407</v>
+        <v>738157.6173032407</v>
       </c>
       <c r="C16" s="0">
         <v>478.99999693036079</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.61762731476</v>
+        <v>738157.61762731476</v>
       </c>
       <c r="C17" s="0">
         <v>506.99999593198299</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.61800925923</v>
+        <v>738157.61800925923</v>
       </c>
       <c r="C18" s="0">
         <v>539.99999798834324</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.61833333329</v>
+        <v>738157.61833333329</v>
       </c>
       <c r="C19" s="0">
         <v>567.99999698996544</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.61863425921</v>
+        <v>738157.61863425921</v>
       </c>
       <c r="C20" s="0">
         <v>593.99999678134918</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.61907407409</v>
+        <v>738157.61907407409</v>
       </c>
       <c r="C21" s="0">
         <v>632.00000189244747</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.6193171296</v>
+        <v>738157.6193171296</v>
       </c>
       <c r="C22" s="0">
         <v>652.99999862909317</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.61965277779</v>
+        <v>738157.61965277779</v>
       </c>
       <c r="C23" s="0">
         <v>682.0000022649765</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.62037037034</v>
+        <v>738157.62037037034</v>
       </c>
       <c r="C24" s="0">
         <v>743.99999789893627</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.62037037034</v>
+        <v>738157.62037037034</v>
       </c>
       <c r="C25" s="0">
         <v>743.99999789893627</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.62070601853</v>
+        <v>738157.62070601853</v>
       </c>
       <c r="C26" s="0">
         <v>773.0000015348196</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.62138888892</v>
+        <v>738157.62138888892</v>
       </c>
       <c r="C27" s="0">
         <v>832.00000338256359</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.62177083339</v>
+        <v>738157.62177083339</v>
       </c>
       <c r="C28" s="0">
         <v>865.00000543892384</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.62207175931</v>
+        <v>738157.62207175931</v>
       </c>
       <c r="C29" s="0">
         <v>891.00000523030758</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.62244212965</v>
+        <v>738157.62244212965</v>
       </c>
       <c r="C30" s="0">
         <v>923.00000265240669</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.62276620371</v>
+        <v>738157.62276620371</v>
       </c>
       <c r="C31" s="0">
         <v>951.00000165402889</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.62311342591</v>
+        <v>738157.62311342591</v>
       </c>
       <c r="C32" s="0">
         <v>980.99999986588955</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.62346064812</v>
+        <v>738157.62346064812</v>
       </c>
       <c r="C33" s="0">
         <v>1010.9999980777502</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.62379629631</v>
+        <v>738157.62379629631</v>
       </c>
       <c r="C34" s="0">
         <v>1040.0000017136335</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.62416666665</v>
+        <v>738157.62416666665</v>
       </c>
       <c r="C35" s="0">
         <v>1071.9999991357327</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.62452546298</v>
+        <v>738157.62452546298</v>
       </c>
       <c r="C36" s="0">
         <v>1103.0000019818544</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.62484953704</v>
+        <v>738157.62484953704</v>
       </c>
       <c r="C37" s="0">
         <v>1131.0000009834766</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.6251736111</v>
+        <v>738157.6251736111</v>
       </c>
       <c r="C38" s="0">
         <v>1158.9999999850988</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.62555555557</v>
+        <v>738157.62555555557</v>
       </c>
       <c r="C39" s="0">
         <v>1192.0000020414591</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.62590277777</v>
+        <v>738157.62590277777</v>
       </c>
       <c r="C40" s="0">
         <v>1222.0000002533197</v>
